--- a/xlsx/维基媒体基金会_intext.xlsx
+++ b/xlsx/维基媒体基金会_intext.xlsx
@@ -15,1221 +15,1206 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="400">
   <si>
     <t>维基媒体基金会</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%9F%BA%E9%87%91%E6%9C%83</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/MediaWiki</t>
+  </si>
+  <si>
+    <t>MediaWiki</t>
+  </si>
+  <si>
+    <t>政策_政策_维基百科_维基媒体基金会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Wikimedia_Commons</t>
+  </si>
+  <si>
+    <t>Wikimedia Commons</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%9D%90%E6%A0%87</t>
+  </si>
+  <si>
+    <t>地理坐标</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/501(c)%E6%9D%A1%E6%AC%BE</t>
+  </si>
+  <si>
+    <t>501(c)条款</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%BD%BC%E5%BE%B7%E6%96%AF%E5%A0%A1_(%E4%BD%9B%E7%BE%85%E9%87%8C%E9%81%94%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>圣彼德斯堡 (佛罗里达州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%B1%B3%C2%B7%E5%A8%81%E7%88%BE%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>吉米·威尔士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E9%87%91%E5%B1%B1</t>
+  </si>
+  <si>
+    <t>旧金山</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%9F%B6</t>
+  </si>
+  <si>
+    <t>洛杉矶</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%87%AF%E7%91%9F%E7%90%B3%C2%B7%E9%A9%AC%E8%B5%AB</t>
+  </si>
+  <si>
+    <t>凯瑟琳·马赫</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%AE%B9%E5%BC%80%E6%94%BE</t>
+  </si>
+  <si>
+    <t>内容开放</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Wiki</t>
+  </si>
+  <si>
+    <t>Wiki</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E7%99%BE%E7%A7%91</t>
+  </si>
+  <si>
+    <t>维基百科</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E8%AF%8D%E5%85%B8</t>
+  </si>
+  <si>
+    <t>维基词典</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%95%99%E7%A7%91%E6%9B%B8</t>
+  </si>
+  <si>
+    <t>维基教科书</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E6%96%87%E5%BA%93</t>
+  </si>
+  <si>
+    <t>维基文库</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%89%A9%E7%A8%AE</t>
+  </si>
+  <si>
+    <t>维基物种</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E6%96%B0%E9%97%BB</t>
+  </si>
+  <si>
+    <t>维基新闻</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E5%AD%A6%E9%99%A2</t>
+  </si>
+  <si>
+    <t>维基学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E6%95%B0%E6%8D%AE</t>
+  </si>
+  <si>
+    <t>维基数据</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E5%AF%BC%E6%B8%B8</t>
+  </si>
+  <si>
+    <t>维基导游</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
+  </si>
+  <si>
+    <t>美元</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E9%87%91%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>基金会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>加利福尼亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%91%E7%BB%9C%E7%99%BE%E7%A7%91%E5%85%A8%E4%B9%A6</t>
+  </si>
+  <si>
+    <t>网络百科全书</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Nupedia</t>
+  </si>
+  <si>
+    <t>Nupedia</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%B1%B3%C2%B7%E5%A8%81%E7%88%BE%E6%96%AF</t>
+  </si>
+  <si>
+    <t>吉米·威尔斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%89%A7%E8%A1%8C%E8%91%A3%E4%BA%8B</t>
+  </si>
+  <si>
+    <t>执行董事</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Internal_Revenue_Code</t>
+  </si>
+  <si>
+    <t>en-Internal Revenue Code</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%85%88%E5%96%84%E7%BB%84%E7%BB%87</t>
+  </si>
+  <si>
+    <t>慈善组织</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/National_Taxonomy_of_Exempt_Entities</t>
+  </si>
+  <si>
+    <t>en-National Taxonomy of Exempt Entities</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%88%90%E4%BA%BA%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>成人教育</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Continuing_education</t>
+  </si>
+  <si>
+    <t>en-Continuing education</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%94%BE%E5%85%A7%E5%AE%B9</t>
+  </si>
+  <si>
+    <t>开放内容</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%8D%E8%B4%B9</t>
+  </si>
+  <si>
+    <t>免费</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Internet_entrepreneur</t>
+  </si>
+  <si>
+    <t>en-Internet entrepreneur</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BD%AF%E4%BB%B6%E8%AE%BE%E8%AE%A1%E5%B8%88</t>
+  </si>
+  <si>
+    <t>软件设计师</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E9%87%8C%C2%B7%E6%A1%91%E6%A0%BC</t>
+  </si>
+  <si>
+    <t>拉里·桑格</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Bomis</t>
+  </si>
+  <si>
+    <t>Bomis</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%B8%93%E5%88%A9%E5%8F%8A%E5%95%86%E6%A0%87%E5%B1%80</t>
+  </si>
+  <si>
+    <t>美国专利及商标局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E7%A8%8E%E5%8A%A1%E5%B1%80</t>
+  </si>
+  <si>
+    <t>美国国家税务局</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Tax_deduction</t>
+  </si>
+  <si>
+    <t>en-Tax deduction</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%88%E4%BD%9C%E7%A4%BE</t>
+  </si>
+  <si>
+    <t>合作社</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1%E7%81%A3%E5%8D%80</t>
+  </si>
+  <si>
+    <t>旧金山湾区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E5%AA%92%E4%BD%93%E8%AE%A1%E5%88%92</t>
+  </si>
+  <si>
+    <t>维基媒体计划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%85%A7%E5%AE%B9</t>
+  </si>
+  <si>
+    <t>自由内容</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%99%E7%A7%91%E6%9B%B8</t>
+  </si>
+  <si>
+    <t>教科书</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B7%9A%E4%B8%8A%E5%A0%B1%E7%B4%99</t>
+  </si>
+  <si>
+    <t>线上报纸</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E7%A7%8D</t>
+  </si>
+  <si>
+    <t>物种</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%88%86%E7%B1%BB%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>生物分类学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AF%86%E5%BA%93</t>
+  </si>
+  <si>
+    <t>知识库</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%95%E7%94%A8</t>
+  </si>
+  <si>
+    <t>引用</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%85%E9%81%8A%E6%8C%87%E5%8D%97</t>
+  </si>
+  <si>
+    <t>旅游指南</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E4%BD%8D%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
+  </si>
+  <si>
+    <t>数位图书馆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A9%9E%E5%85%B8</t>
+  </si>
+  <si>
+    <t>词典</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E5%BC%95%E5%85%B8</t>
+  </si>
+  <si>
+    <t>索引典</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E5%AA%92%E4%BD%93%E5%88%86%E4%BC%9A%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>维基媒体分会列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BC%96%E8%BE%91%E6%9D%BE</t>
+  </si>
+  <si>
+    <t>编辑松</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E5%AE%A2%E6%9D%BE</t>
+  </si>
+  <si>
+    <t>黑客松</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E5%85%B3%E7%B3%BB</t>
+  </si>
+  <si>
+    <t>公共关系</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E6%94%BF%E7%AD%96</t>
+  </si>
+  <si>
+    <t>公共政策</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/GLAM_(%E7%94%A2%E6%A5%AD)</t>
+  </si>
+  <si>
+    <t>GLAM (产业)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%9C%8B%E9%9A%9B%E6%9C%83%E8%AD%B0</t>
+  </si>
+  <si>
+    <t>维基媒体国际会议</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E8%99%8E</t>
+  </si>
+  <si>
+    <t>雅虎</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BD%97%E9%87%8C%E8%BE%BE%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>佛罗里达州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%BD%BC%E5%BE%97%E6%96%AF%E5%A0%A1_(%E4%BD%9B%E7%BD%97%E9%87%8C%E8%BE%BE%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>圣彼得斯堡 (佛罗里达州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E9%87%91%E5%B1%B1%E6%B9%BE%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%88%BE%E5%BC%97%C2%B7%E6%96%AF%E9%9A%86%E5%9F%BA%E9%87%91</t>
+  </si>
+  <si>
+    <t>艾尔弗·斯隆基金</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%AE%89%E5%85%A8%E5%B1%80</t>
+  </si>
+  <si>
+    <t>美国国家安全局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8F%B8%E6%B3%95%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国司法部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E4%B8%80%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国宪法第一修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E5%9B%9B%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国宪法第四修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%9F%BA%E9%87%91%E6%9C%83%E6%8E%A7%E5%91%8A%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%AE%89%E5%85%A8%E5%B1%80%E6%A1%88</t>
+  </si>
+  <si>
+    <t>维基媒体基金会控告美国国家安全局案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8E%89%E6%8B%89%C2%B7%E5%B4%94%E8%BF%AA%E7%A7%91%E5%A4%AB</t>
+  </si>
+  <si>
+    <t>莉拉·崔迪科夫</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%93%A1%E6%9C%83</t>
+  </si>
+  <si>
+    <t>委员会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E6%9B%B8%E9%95%B7</t>
+  </si>
+  <si>
+    <t>秘书长</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Guy_Kawasaki</t>
+  </si>
+  <si>
+    <t>en-Guy Kawasaki</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E7%9F%A5%E8%AD%98%E5%BC%95%E6%93%8E</t>
+  </si>
+  <si>
+    <t>维基百科知识引擎</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%95%99%E8%82%B2%E5%9F%BA%E9%87%91%E6%9C%83</t>
+  </si>
+  <si>
+    <t>维基教育基金会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%96%B0%E8%81%9E</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Kibibyte</t>
+  </si>
+  <si>
+    <t>Kibibyte</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%AA%9E%E9%8C%84</t>
+  </si>
+  <si>
+    <t>维基语录</t>
+  </si>
+  <si>
+    <t>https://zh.wikiquote.org/wiki/</t>
+  </si>
+  <si>
+    <t>q-</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%96%87%E5%BA%AB</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%85%B1%E4%BA%AB%E8%B3%87%E6%BA%90</t>
+  </si>
+  <si>
+    <t>维基共享资源</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%B0%8E%E9%81%8A</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%83%E7%BB%B4%E5%9F%BA</t>
+  </si>
+  <si>
+    <t>元维基</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E4%BD%9C%E5%85%B1%E7%94%A8</t>
+  </si>
+  <si>
+    <t>创作共用</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%9B%E4%BD%9C%E5%85%B1%E7%94%A8%E6%8E%88%E6%9D%83</t>
+  </si>
+  <si>
+    <t>创作共用授权</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_works_available_under_a_Creative_Commons_license</t>
+  </si>
+  <si>
+    <t>en-List of works available under a Creative Commons license</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Creative_Commons-licensed_content_directories</t>
+  </si>
+  <si>
+    <t>en-Creative Commons-licensed content directories</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Creative_Commons_jurisdiction_ports</t>
+  </si>
+  <si>
+    <t>en-Creative Commons jurisdiction ports</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E4%BA%AB%E5%89%B5%E6%84%8F</t>
+  </si>
+  <si>
+    <t>共享创意</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/ccMixter</t>
+  </si>
+  <si>
+    <t>en-ccMixter</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/OpenGameArt.org</t>
+  </si>
+  <si>
+    <t>en-OpenGameArt.org</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Dogmazic</t>
+  </si>
+  <si>
+    <t>en-Dogmazic</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Jamendo</t>
+  </si>
+  <si>
+    <t>Jamendo</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Phlow</t>
+  </si>
+  <si>
+    <t>en-Phlow</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Electrobel</t>
+  </si>
+  <si>
+    <t>en-Electrobel</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Newgrounds</t>
+  </si>
+  <si>
+    <t>en-Newgrounds</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Scripped</t>
+  </si>
+  <si>
+    <t>en-Scripped</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Mininova</t>
+  </si>
+  <si>
+    <t>en-Mininova</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%80%AB%E6%96%AF%C2%B7%E9%9B%B7%E5%B8%AD%E6%A0%BC</t>
+  </si>
+  <si>
+    <t>劳伦斯·雷席格</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E8%97%A4%E7%A9%B0%E4%B8%80</t>
+  </si>
+  <si>
+    <t>伊藤穰一</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%86%85%E5%AE%B9</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%96%87%E5%8C%96%E9%81%8B%E5%8B%95</t>
+  </si>
+  <si>
+    <t>自由文化运动</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%8F%8A%E5%BC%80%E6%94%BE%E6%BA%90%E4%BB%A3%E7%A0%81%E8%BD%AF%E4%BB%B6</t>
+  </si>
+  <si>
+    <t>自由及开放源代码软件</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Copyleft</t>
+  </si>
+  <si>
+    <t>Copyleft</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%BB%9F%E9%AB%94</t>
+  </si>
+  <si>
+    <t>自由软体</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%94%BE%E6%BA%90%E4%BB%A3%E7%A0%81%E8%BD%AF%E4%BB%B6</t>
+  </si>
+  <si>
+    <t>开放源代码软件</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%8F%8A%E5%BC%80%E6%94%BE%E6%BA%90%E4%BB%A3%E7%A0%81%E8%BD%AF%E4%BB%B6%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>自由及开放源代码软件列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%94%BE%E5%8E%9F%E5%A7%8B%E7%A2%BC%E4%BD%9C%E6%A5%AD%E7%B3%BB%E7%B5%B1%E7%9A%84%E6%AF%94%E8%BC%83</t>
+  </si>
+  <si>
+    <t>开放原始码作业系统的比较</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/BSD</t>
+  </si>
+  <si>
+    <t>BSD</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Apple_Darwin</t>
+  </si>
+  <si>
+    <t>Apple Darwin</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/FreeDOS</t>
+  </si>
+  <si>
+    <t>FreeDOS</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/GNU</t>
+  </si>
+  <si>
+    <t>GNU</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Haiku</t>
+  </si>
+  <si>
+    <t>Haiku</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Inferno</t>
+  </si>
+  <si>
+    <t>Inferno</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Linux</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Mach</t>
+  </si>
+  <si>
+    <t>Mach</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Minix</t>
+  </si>
+  <si>
+    <t>Minix</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/OpenSolaris</t>
+  </si>
+  <si>
+    <t>OpenSolaris</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Symbian</t>
+  </si>
+  <si>
+    <t>Symbian</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E7%88%BE%E5%AF%A6%E9%A9%97%E5%AE%A4%E4%B9%9D%E8%99%9F%E8%A8%88%E5%8A%83</t>
+  </si>
+  <si>
+    <t>贝尔实验室九号计划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/ReactOS</t>
+  </si>
+  <si>
+    <t>ReactOS</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Open-source_software_development</t>
+  </si>
+  <si>
+    <t>en-Open-source software development</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Eclipse</t>
+  </si>
+  <si>
+    <t>Eclipse</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Free_Pascal</t>
+  </si>
+  <si>
+    <t>Free Pascal</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/GCC</t>
+  </si>
+  <si>
+    <t>GCC</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Java</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/LLVM</t>
+  </si>
+  <si>
+    <t>LLVM</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Lua</t>
+  </si>
+  <si>
+    <t>Lua</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Open64</t>
+  </si>
+  <si>
+    <t>Open64</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Perl</t>
+  </si>
+  <si>
+    <t>Perl</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/PHP</t>
+  </si>
+  <si>
+    <t>PHP</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Python</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Ruby</t>
+  </si>
+  <si>
+    <t>Ruby</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Tcl</t>
+  </si>
+  <si>
+    <t>Tcl</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%94%BE%E5%8E%9F%E5%A7%8B%E7%A2%BC%E8%BB%9F%E9%AB%94%E6%AD%B7%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>开放原始码软体历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Mozilla</t>
+  </si>
+  <si>
+    <t>Mozilla</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Mozilla_Application_Suite</t>
+  </si>
+  <si>
+    <t>Mozilla Application Suite</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Mozilla_Firefox%E6%AD%B7%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>Mozilla Firefox历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Android</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Apache%E8%BB%9F%E4%BB%B6%E5%9F%BA%E9%87%91%E6%9C%83</t>
+  </si>
+  <si>
+    <t>Apache软件基金会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Blender%E5%9F%BA%E9%87%91%E6%9C%83</t>
+  </si>
+  <si>
+    <t>Blender基金会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Eclipse%E5%9F%BA%E9%87%91%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>Eclipse基金会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Freedesktop.org</t>
+  </si>
+  <si>
+    <t>Freedesktop.org</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%BB%9F%E9%AB%94%E5%9F%BA%E9%87%91%E6%9C%83</t>
+  </si>
+  <si>
+    <t>自由软体基金会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/GNOME%E5%9F%BA%E9%87%91%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>GNOME基金会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Google_Code</t>
+  </si>
+  <si>
+    <t>Google Code</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/KDE_e.V.</t>
+  </si>
+  <si>
+    <t>KDE e.V.</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Linux%E5%9F%BA%E9%87%91%E6%9C%83</t>
+  </si>
+  <si>
+    <t>Linux基金会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Mozilla%E5%9F%BA%E9%87%91%E6%9C%83</t>
+  </si>
+  <si>
+    <t>Mozilla基金会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%BA%90%E5%9C%B0%E7%90%86%E7%A9%BA%E9%97%B4%E5%9F%BA%E9%87%91%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>开源地理空间基金会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%94%BE%E6%BA%90%E4%BB%A3%E7%A0%81%E4%BF%83%E8%BF%9B%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>开放源代码促进会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/SourceForge</t>
+  </si>
+  <si>
+    <t>SourceForge</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Symbian%E5%9F%BA%E9%87%91%E6%9C%83</t>
+  </si>
+  <si>
+    <t>Symbian基金会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/VideoLAN</t>
+  </si>
+  <si>
+    <t>VideoLAN</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Xiph.Org%E5%9F%BA%E9%87%91%E6%9C%83</t>
+  </si>
+  <si>
+    <t>Xiph.Org基金会</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/XMPP_Standards_Foundation</t>
+  </si>
+  <si>
+    <t>en-XMPP Standards Foundation</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/X.Org%E5%9F%BA%E9%87%91%E6%9C%83</t>
+  </si>
+  <si>
+    <t>X.Org基金会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E6%AA%94%E5%9F%BA%E9%87%91%E6%9C%83</t>
+  </si>
+  <si>
+    <t>文档基金会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E9%AB%94%E8%87%AA%E7%94%B1%E6%B3%95%E5%BE%8B%E4%B8%AD%E5%BF%83</t>
+  </si>
+  <si>
+    <t>软体自由法律中心</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%BB%9F%E9%AB%94%E8%A8%B1%E5%8F%AF%E8%AD%89</t>
+  </si>
+  <si>
+    <t>自由软体许可证</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Apache%E8%A8%B1%E5%8F%AF%E8%AD%89</t>
+  </si>
+  <si>
+    <t>Apache许可证</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Artistic_License</t>
+  </si>
+  <si>
+    <t>Artistic License</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B9%E6%9E%9C%E5%85%AC%E5%85%B1%E6%BA%90%E4%BB%A3%E7%A0%81%E8%AE%B8%E5%8F%AF%E8%AF%81</t>
+  </si>
+  <si>
+    <t>苹果公共源代码许可证</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/GNU%E9%80%9A%E7%94%A8%E5%85%AC%E5%85%B1%E8%A8%B1%E5%8F%AF%E8%AD%89</t>
+  </si>
+  <si>
+    <t>GNU通用公共许可证</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/GNU%E8%BC%83%E5%AF%AC%E9%AC%86%E5%85%AC%E5%85%B1%E8%A8%B1%E5%8F%AF%E8%AD%89</t>
+  </si>
+  <si>
+    <t>GNU较宽松公共许可证</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Affero%E9%80%9A%E7%94%A8%E5%85%AC%E5%85%B1%E8%AE%B8%E5%8F%AF%E8%AF%81</t>
+  </si>
+  <si>
+    <t>Affero通用公共许可证</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/ISC%E8%A8%B1%E5%8F%AF%E8%AD%89</t>
+  </si>
+  <si>
+    <t>ISC许可证</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/MIT%E8%A8%B1%E5%8F%AF%E8%AD%89</t>
+  </si>
+  <si>
+    <t>MIT许可证</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Mozilla%E5%85%AC%E5%85%B1%E8%A8%B1%E5%8F%AF%E8%AD%89</t>
+  </si>
+  <si>
+    <t>Mozilla公共许可证</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E4%BA%AB%E6%BA%90%E4%BB%A3%E7%A0%81</t>
+  </si>
+  <si>
+    <t>共享源代码</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Zlib%E6%8E%88%E6%9D%83</t>
+  </si>
+  <si>
+    <t>Zlib授权</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/WTFPL</t>
+  </si>
+  <si>
+    <t>WTFPL</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%8F%8A%E9%96%8B%E6%94%BE%E5%8E%9F%E5%A7%8B%E7%A2%BC%E8%BB%9F%E9%AB%94%E8%A8%B1%E5%8F%AF%E8%AD%89%E6%AF%94%E8%BC%83</t>
+  </si>
+  <si>
+    <t>自由及开放原始码软体许可证比较</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/FUD</t>
+  </si>
+  <si>
+    <t>FUD</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%93%81%E6%8A%B1%E3%80%81%E6%93%B4%E5%85%85%E5%8A%9F%E8%83%BD%E5%86%8D%E6%B6%88%E6%BB%85</t>
+  </si>
+  <si>
+    <t>拥抱、扩充功能再消灭</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Binary_blob</t>
+  </si>
+  <si>
+    <t>en-Binary blob</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E4%BD%8D%E7%89%88%E6%AC%8A%E7%AE%A1%E7%90%86</t>
+  </si>
+  <si>
+    <t>数位版权管理</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Free_and_open-source_graphics_device_driver</t>
+  </si>
+  <si>
+    <t>en-Free and open-source graphics device driver</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/License_proliferation</t>
+  </si>
+  <si>
+    <t>en-License proliferation</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Mozilla_Corporation_software_rebranded_by_the_Debian_project</t>
+  </si>
+  <si>
+    <t>en-Mozilla Corporation software rebranded by the Debian project</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%93%E6%9C%89%E8%BD%AF%E4%BB%B6</t>
+  </si>
+  <si>
+    <t>专有软件</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/SCO-Linux%E7%88%AD%E8%AD%B0</t>
+  </si>
+  <si>
+    <t>SCO-Linux争议</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E4%BF%A1%E8%AE%A1%E7%AE%97</t>
+  </si>
+  <si>
+    <t>可信计算</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/GNU%E9%80%9A%E7%94%A8%E5%85%AC%E5%85%B1%E8%AE%B8%E5%8F%AF%E5%8D%8F%E8%AE%AE</t>
+  </si>
+  <si>
+    <t>GNU通用公共许可协议</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%BB%9F%E9%AB%94%E7%A4%BE%E7%BE%A4</t>
+  </si>
+  <si>
+    <t>自由软体社群</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Linux%E7%99%BC%E8%A1%8C%E7%89%88</t>
+  </si>
+  <si>
+    <t>Linux发行版</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%8D%E5%88%BB_(%E8%BD%AF%E4%BB%B6%E5%B7%A5%E7%A8%8B)</t>
+  </si>
+  <si>
+    <t>复刻 (软件工程)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%BB%9F%E9%AB%94%E9%81%8B%E5%8B%95</t>
+  </si>
+  <si>
+    <t>自由软体运动</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Microsoft_Open_Specification_Promise</t>
+  </si>
+  <si>
+    <t>en-Microsoft Open Specification Promise</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%93%8D%E4%BD%9C%E7%B3%BB%E7%BB%9F%E9%9D%A9%E5%91%BD</t>
+  </si>
+  <si>
+    <t>操作系统革命</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Comparison_of_open_source_and_closed_source</t>
+  </si>
+  <si>
+    <t>en-Comparison of open source and closed source</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
+  </si>
+  <si>
+    <t>权威控制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
+  </si>
+  <si>
+    <t>虚拟国际规范文档</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
+  </si>
+  <si>
+    <t>美国国会图书馆控制号</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
+  </si>
+  <si>
+    <t>整合规范文档</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E5%AA%92%E4%BD%93%E5%9F%BA%E9%87%91%E4%BC%9A</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/MediaWiki</t>
-  </si>
-  <si>
-    <t>MediaWiki</t>
-  </si>
-  <si>
-    <t>政策_政策_維基百科_维基百科 (消歧义)_维基媒体基金会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Wikimedia_Commons</t>
-  </si>
-  <si>
-    <t>Wikimedia Commons</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%9D%90%E6%A0%87</t>
-  </si>
-  <si>
-    <t>地理坐标</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/501(c)%E6%9D%A1%E6%AC%BE</t>
-  </si>
-  <si>
-    <t>501(c)条款</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%BD%BC%E5%BE%B7%E6%96%AF%E5%A0%A1_(%E4%BD%9B%E7%BE%85%E9%87%8C%E9%81%94%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>聖彼德斯堡 (佛羅里達州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%B1%B3%C2%B7%E5%A8%81%E7%88%BE%E5%A3%AB</t>
-  </si>
-  <si>
-    <t>吉米·威爾士</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E9%87%91%E5%B1%B1</t>
-  </si>
-  <si>
-    <t>旧金山</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%9F%B6</t>
-  </si>
-  <si>
-    <t>洛杉矶</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%87%AF%E7%91%9F%E7%90%B3%C2%B7%E9%A9%AC%E8%B5%AB</t>
-  </si>
-  <si>
-    <t>凯瑟琳·马赫</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%AE%B9%E5%BC%80%E6%94%BE</t>
-  </si>
-  <si>
-    <t>内容开放</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Wiki</t>
-  </si>
-  <si>
-    <t>Wiki</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E7%99%BE%E7%A7%91</t>
-  </si>
-  <si>
-    <t>维基百科</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E8%AF%8D%E5%85%B8</t>
-  </si>
-  <si>
-    <t>维基词典</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%95%99%E7%A7%91%E6%9B%B8</t>
-  </si>
-  <si>
-    <t>維基教科書</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E6%96%87%E5%BA%93</t>
-  </si>
-  <si>
-    <t>维基文库</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%89%A9%E7%A8%AE</t>
-  </si>
-  <si>
-    <t>維基物種</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E6%96%B0%E9%97%BB</t>
-  </si>
-  <si>
-    <t>维基新闻</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E5%AD%A6%E9%99%A2</t>
-  </si>
-  <si>
-    <t>维基学院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E6%95%B0%E6%8D%AE</t>
-  </si>
-  <si>
-    <t>维基数据</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E5%AF%BC%E6%B8%B8</t>
-  </si>
-  <si>
-    <t>维基导游</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
-  </si>
-  <si>
-    <t>美元</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E9%87%91%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>基金会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>加利福尼亚州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%91%E7%BB%9C%E7%99%BE%E7%A7%91%E5%85%A8%E4%B9%A6</t>
-  </si>
-  <si>
-    <t>网络百科全书</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Nupedia</t>
-  </si>
-  <si>
-    <t>Nupedia</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%B1%B3%C2%B7%E5%A8%81%E7%88%BE%E6%96%AF</t>
-  </si>
-  <si>
-    <t>吉米·威爾斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%89%A7%E8%A1%8C%E8%91%A3%E4%BA%8B</t>
-  </si>
-  <si>
-    <t>执行董事</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Internal_Revenue_Code</t>
-  </si>
-  <si>
-    <t>en-Internal Revenue Code</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%85%88%E5%96%84%E7%BB%84%E7%BB%87</t>
-  </si>
-  <si>
-    <t>慈善组织</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/National_Taxonomy_of_Exempt_Entities</t>
-  </si>
-  <si>
-    <t>en-National Taxonomy of Exempt Entities</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%88%90%E4%BA%BA%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>成人教育</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Continuing_education</t>
-  </si>
-  <si>
-    <t>en-Continuing education</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%94%BE%E5%85%A7%E5%AE%B9</t>
-  </si>
-  <si>
-    <t>開放內容</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%8D%E8%B4%B9</t>
-  </si>
-  <si>
-    <t>免费</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Internet_entrepreneur</t>
-  </si>
-  <si>
-    <t>en-Internet entrepreneur</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BD%AF%E4%BB%B6%E8%AE%BE%E8%AE%A1%E5%B8%88</t>
-  </si>
-  <si>
-    <t>软件设计师</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E9%87%8C%C2%B7%E6%A1%91%E6%A0%BC</t>
-  </si>
-  <si>
-    <t>拉里·桑格</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Bomis</t>
-  </si>
-  <si>
-    <t>Bomis</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%B8%93%E5%88%A9%E5%8F%8A%E5%95%86%E6%A0%87%E5%B1%80</t>
-  </si>
-  <si>
-    <t>美国专利及商标局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E7%A8%8E%E5%8A%A1%E5%B1%80</t>
-  </si>
-  <si>
-    <t>美国国家税务局</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Tax_deduction</t>
-  </si>
-  <si>
-    <t>en-Tax deduction</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%88%E4%BD%9C%E7%A4%BE</t>
-  </si>
-  <si>
-    <t>合作社</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1%E7%81%A3%E5%8D%80</t>
-  </si>
-  <si>
-    <t>舊金山灣區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E5%AA%92%E4%BD%93%E8%AE%A1%E5%88%92</t>
-  </si>
-  <si>
-    <t>维基媒体计划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%85%A7%E5%AE%B9</t>
-  </si>
-  <si>
-    <t>自由內容</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%99%E7%A7%91%E6%9B%B8</t>
-  </si>
-  <si>
-    <t>教科書</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B7%9A%E4%B8%8A%E5%A0%B1%E7%B4%99</t>
-  </si>
-  <si>
-    <t>線上報紙</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E7%A7%8D</t>
-  </si>
-  <si>
-    <t>物种</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%88%86%E7%B1%BB%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>生物分类学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AF%86%E5%BA%93</t>
-  </si>
-  <si>
-    <t>知识库</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%95%E7%94%A8</t>
-  </si>
-  <si>
-    <t>引用</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%85%E9%81%8A%E6%8C%87%E5%8D%97</t>
-  </si>
-  <si>
-    <t>旅遊指南</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E4%BD%8D%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
-  </si>
-  <si>
-    <t>數位圖書館</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A9%9E%E5%85%B8</t>
-  </si>
-  <si>
-    <t>詞典</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E5%BC%95%E5%85%B8</t>
-  </si>
-  <si>
-    <t>索引典</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E5%AA%92%E4%BD%93%E5%88%86%E4%BC%9A%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>维基媒体分会列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BC%96%E8%BE%91%E6%9D%BE</t>
-  </si>
-  <si>
-    <t>编辑松</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E5%AE%A2%E6%9D%BE</t>
-  </si>
-  <si>
-    <t>黑客松</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E5%85%B3%E7%B3%BB</t>
-  </si>
-  <si>
-    <t>公共关系</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E6%94%BF%E7%AD%96</t>
-  </si>
-  <si>
-    <t>公共政策</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/GLAM_(%E7%94%A2%E6%A5%AD)</t>
-  </si>
-  <si>
-    <t>GLAM (產業)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%9C%8B%E9%9A%9B%E6%9C%83%E8%AD%B0</t>
-  </si>
-  <si>
-    <t>維基媒體國際會議</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E8%99%8E</t>
-  </si>
-  <si>
-    <t>雅虎</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BD%97%E9%87%8C%E8%BE%BE%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>佛罗里达州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%BD%BC%E5%BE%97%E6%96%AF%E5%A0%A1_(%E4%BD%9B%E7%BD%97%E9%87%8C%E8%BE%BE%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>圣彼得斯堡 (佛罗里达州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E9%87%91%E5%B1%B1%E6%B9%BE%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>旧金山湾区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%88%BE%E5%BC%97%C2%B7%E6%96%AF%E9%9A%86%E5%9F%BA%E9%87%91</t>
-  </si>
-  <si>
-    <t>艾爾弗·斯隆基金</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%AE%89%E5%85%A8%E5%B1%80</t>
-  </si>
-  <si>
-    <t>美國國家安全局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8F%B8%E6%B3%95%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國司法部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E4%B8%80%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美國憲法第一修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E5%9B%9B%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美國憲法第四修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%9F%BA%E9%87%91%E6%9C%83%E6%8E%A7%E5%91%8A%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%AE%89%E5%85%A8%E5%B1%80%E6%A1%88</t>
-  </si>
-  <si>
-    <t>維基媒體基金會控告美國國家安全局案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8E%89%E6%8B%89%C2%B7%E5%B4%94%E8%BF%AA%E7%A7%91%E5%A4%AB</t>
-  </si>
-  <si>
-    <t>莉拉·崔迪科夫</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%93%A1%E6%9C%83</t>
-  </si>
-  <si>
-    <t>委員會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E6%9B%B8%E9%95%B7</t>
-  </si>
-  <si>
-    <t>秘書長</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Guy_Kawasaki</t>
-  </si>
-  <si>
-    <t>en-Guy Kawasaki</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E7%9F%A5%E8%AD%98%E5%BC%95%E6%93%8E</t>
-  </si>
-  <si>
-    <t>維基百科知識引擎</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%95%99%E8%82%B2%E5%9F%BA%E9%87%91%E6%9C%83</t>
-  </si>
-  <si>
-    <t>維基教育基金會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%96%B0%E8%81%9E</t>
-  </si>
-  <si>
-    <t>維基新聞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Kibibyte</t>
-  </si>
-  <si>
-    <t>Kibibyte</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%9F%BA%E9%87%91%E6%9C%83</t>
-  </si>
-  <si>
-    <t>維基媒體基金會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
-  </si>
-  <si>
-    <t>維基詞典</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%AA%9E%E9%8C%84</t>
-  </si>
-  <si>
-    <t>維基語錄</t>
-  </si>
-  <si>
-    <t>https://zh.wikiquote.org/wiki/</t>
-  </si>
-  <si>
-    <t>q-</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%96%87%E5%BA%AB</t>
-  </si>
-  <si>
-    <t>維基文庫</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%85%B1%E4%BA%AB%E8%B3%87%E6%BA%90</t>
-  </si>
-  <si>
-    <t>維基共享資源</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%B0%8E%E9%81%8A</t>
-  </si>
-  <si>
-    <t>維基導遊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%83%E7%BB%B4%E5%9F%BA</t>
-  </si>
-  <si>
-    <t>元维基</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E4%BD%9C%E5%85%B1%E7%94%A8</t>
-  </si>
-  <si>
-    <t>創作共用</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%9B%E4%BD%9C%E5%85%B1%E7%94%A8%E6%8E%88%E6%9D%83</t>
-  </si>
-  <si>
-    <t>创作共用授权</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_works_available_under_a_Creative_Commons_license</t>
-  </si>
-  <si>
-    <t>en-List of works available under a Creative Commons license</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Creative_Commons-licensed_content_directories</t>
-  </si>
-  <si>
-    <t>en-Creative Commons-licensed content directories</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Creative_Commons_jurisdiction_ports</t>
-  </si>
-  <si>
-    <t>en-Creative Commons jurisdiction ports</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E4%BA%AB%E5%89%B5%E6%84%8F</t>
-  </si>
-  <si>
-    <t>共享創意</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/ccMixter</t>
-  </si>
-  <si>
-    <t>en-ccMixter</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/OpenGameArt.org</t>
-  </si>
-  <si>
-    <t>en-OpenGameArt.org</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Dogmazic</t>
-  </si>
-  <si>
-    <t>en-Dogmazic</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Jamendo</t>
-  </si>
-  <si>
-    <t>Jamendo</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Phlow</t>
-  </si>
-  <si>
-    <t>en-Phlow</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Electrobel</t>
-  </si>
-  <si>
-    <t>en-Electrobel</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Newgrounds</t>
-  </si>
-  <si>
-    <t>en-Newgrounds</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Scripped</t>
-  </si>
-  <si>
-    <t>en-Scripped</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Mininova</t>
-  </si>
-  <si>
-    <t>en-Mininova</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%80%AB%E6%96%AF%C2%B7%E9%9B%B7%E5%B8%AD%E6%A0%BC</t>
-  </si>
-  <si>
-    <t>勞倫斯·雷席格</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E8%97%A4%E7%A9%B0%E4%B8%80</t>
-  </si>
-  <si>
-    <t>伊藤穰一</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%86%85%E5%AE%B9</t>
-  </si>
-  <si>
-    <t>自由内容</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%96%87%E5%8C%96%E9%81%8B%E5%8B%95</t>
-  </si>
-  <si>
-    <t>自由文化運動</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%8F%8A%E5%BC%80%E6%94%BE%E6%BA%90%E4%BB%A3%E7%A0%81%E8%BD%AF%E4%BB%B6</t>
-  </si>
-  <si>
-    <t>自由及开放源代码软件</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Copyleft</t>
-  </si>
-  <si>
-    <t>Copyleft</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%BB%9F%E9%AB%94</t>
-  </si>
-  <si>
-    <t>自由軟體</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%94%BE%E6%BA%90%E4%BB%A3%E7%A0%81%E8%BD%AF%E4%BB%B6</t>
-  </si>
-  <si>
-    <t>开放源代码软件</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%8F%8A%E5%BC%80%E6%94%BE%E6%BA%90%E4%BB%A3%E7%A0%81%E8%BD%AF%E4%BB%B6%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>自由及开放源代码软件列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%94%BE%E5%8E%9F%E5%A7%8B%E7%A2%BC%E4%BD%9C%E6%A5%AD%E7%B3%BB%E7%B5%B1%E7%9A%84%E6%AF%94%E8%BC%83</t>
-  </si>
-  <si>
-    <t>開放原始碼作業系統的比較</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/BSD</t>
-  </si>
-  <si>
-    <t>BSD</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Apple_Darwin</t>
-  </si>
-  <si>
-    <t>Apple Darwin</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/FreeDOS</t>
-  </si>
-  <si>
-    <t>FreeDOS</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/GNU</t>
-  </si>
-  <si>
-    <t>GNU</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Haiku</t>
-  </si>
-  <si>
-    <t>Haiku</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Inferno</t>
-  </si>
-  <si>
-    <t>Inferno</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Linux</t>
-  </si>
-  <si>
-    <t>Linux</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Mach</t>
-  </si>
-  <si>
-    <t>Mach</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Minix</t>
-  </si>
-  <si>
-    <t>Minix</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/OpenSolaris</t>
-  </si>
-  <si>
-    <t>OpenSolaris</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Symbian</t>
-  </si>
-  <si>
-    <t>Symbian</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E7%88%BE%E5%AF%A6%E9%A9%97%E5%AE%A4%E4%B9%9D%E8%99%9F%E8%A8%88%E5%8A%83</t>
-  </si>
-  <si>
-    <t>貝爾實驗室九號計劃</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/ReactOS</t>
-  </si>
-  <si>
-    <t>ReactOS</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Open-source_software_development</t>
-  </si>
-  <si>
-    <t>en-Open-source software development</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Eclipse</t>
-  </si>
-  <si>
-    <t>Eclipse</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Free_Pascal</t>
-  </si>
-  <si>
-    <t>Free Pascal</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/GCC</t>
-  </si>
-  <si>
-    <t>GCC</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Java</t>
-  </si>
-  <si>
-    <t>Java</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/LLVM</t>
-  </si>
-  <si>
-    <t>LLVM</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Lua</t>
-  </si>
-  <si>
-    <t>Lua</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Open64</t>
-  </si>
-  <si>
-    <t>Open64</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Perl</t>
-  </si>
-  <si>
-    <t>Perl</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/PHP</t>
-  </si>
-  <si>
-    <t>PHP</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Python</t>
-  </si>
-  <si>
-    <t>Python</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Ruby</t>
-  </si>
-  <si>
-    <t>Ruby</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Tcl</t>
-  </si>
-  <si>
-    <t>Tcl</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%94%BE%E5%8E%9F%E5%A7%8B%E7%A2%BC%E8%BB%9F%E9%AB%94%E6%AD%B7%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>開放原始碼軟體歷史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Mozilla</t>
-  </si>
-  <si>
-    <t>Mozilla</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Mozilla_Application_Suite</t>
-  </si>
-  <si>
-    <t>Mozilla Application Suite</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Mozilla_Firefox%E6%AD%B7%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>Mozilla Firefox歷史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Android</t>
-  </si>
-  <si>
-    <t>Android</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Apache%E8%BB%9F%E4%BB%B6%E5%9F%BA%E9%87%91%E6%9C%83</t>
-  </si>
-  <si>
-    <t>Apache軟件基金會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Blender%E5%9F%BA%E9%87%91%E6%9C%83</t>
-  </si>
-  <si>
-    <t>Blender基金會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Eclipse%E5%9F%BA%E9%87%91%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>Eclipse基金会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Freedesktop.org</t>
-  </si>
-  <si>
-    <t>Freedesktop.org</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%BB%9F%E9%AB%94%E5%9F%BA%E9%87%91%E6%9C%83</t>
-  </si>
-  <si>
-    <t>自由軟體基金會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/GNOME%E5%9F%BA%E9%87%91%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>GNOME基金会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Google_Code</t>
-  </si>
-  <si>
-    <t>Google Code</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/KDE_e.V.</t>
-  </si>
-  <si>
-    <t>KDE e.V.</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Linux%E5%9F%BA%E9%87%91%E6%9C%83</t>
-  </si>
-  <si>
-    <t>Linux基金會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Mozilla%E5%9F%BA%E9%87%91%E6%9C%83</t>
-  </si>
-  <si>
-    <t>Mozilla基金會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%BA%90%E5%9C%B0%E7%90%86%E7%A9%BA%E9%97%B4%E5%9F%BA%E9%87%91%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>开源地理空间基金会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%94%BE%E6%BA%90%E4%BB%A3%E7%A0%81%E4%BF%83%E8%BF%9B%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>开放源代码促进会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/SourceForge</t>
-  </si>
-  <si>
-    <t>SourceForge</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Symbian%E5%9F%BA%E9%87%91%E6%9C%83</t>
-  </si>
-  <si>
-    <t>Symbian基金會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/VideoLAN</t>
-  </si>
-  <si>
-    <t>VideoLAN</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Xiph.Org%E5%9F%BA%E9%87%91%E6%9C%83</t>
-  </si>
-  <si>
-    <t>Xiph.Org基金會</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/XMPP_Standards_Foundation</t>
-  </si>
-  <si>
-    <t>en-XMPP Standards Foundation</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/X.Org%E5%9F%BA%E9%87%91%E6%9C%83</t>
-  </si>
-  <si>
-    <t>X.Org基金會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E6%AA%94%E5%9F%BA%E9%87%91%E6%9C%83</t>
-  </si>
-  <si>
-    <t>文檔基金會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E9%AB%94%E8%87%AA%E7%94%B1%E6%B3%95%E5%BE%8B%E4%B8%AD%E5%BF%83</t>
-  </si>
-  <si>
-    <t>軟體自由法律中心</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%BB%9F%E9%AB%94%E8%A8%B1%E5%8F%AF%E8%AD%89</t>
-  </si>
-  <si>
-    <t>自由軟體許可證</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Apache%E8%A8%B1%E5%8F%AF%E8%AD%89</t>
-  </si>
-  <si>
-    <t>Apache許可證</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Artistic_License</t>
-  </si>
-  <si>
-    <t>Artistic License</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B9%E6%9E%9C%E5%85%AC%E5%85%B1%E6%BA%90%E4%BB%A3%E7%A0%81%E8%AE%B8%E5%8F%AF%E8%AF%81</t>
-  </si>
-  <si>
-    <t>苹果公共源代码许可证</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/GNU%E9%80%9A%E7%94%A8%E5%85%AC%E5%85%B1%E8%A8%B1%E5%8F%AF%E8%AD%89</t>
-  </si>
-  <si>
-    <t>GNU通用公共許可證</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/GNU%E8%BC%83%E5%AF%AC%E9%AC%86%E5%85%AC%E5%85%B1%E8%A8%B1%E5%8F%AF%E8%AD%89</t>
-  </si>
-  <si>
-    <t>GNU較寬鬆公共許可證</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Affero%E9%80%9A%E7%94%A8%E5%85%AC%E5%85%B1%E8%AE%B8%E5%8F%AF%E8%AF%81</t>
-  </si>
-  <si>
-    <t>Affero通用公共许可证</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/ISC%E8%A8%B1%E5%8F%AF%E8%AD%89</t>
-  </si>
-  <si>
-    <t>ISC許可證</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/MIT%E8%A8%B1%E5%8F%AF%E8%AD%89</t>
-  </si>
-  <si>
-    <t>MIT許可證</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Mozilla%E5%85%AC%E5%85%B1%E8%A8%B1%E5%8F%AF%E8%AD%89</t>
-  </si>
-  <si>
-    <t>Mozilla公共許可證</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E4%BA%AB%E6%BA%90%E4%BB%A3%E7%A0%81</t>
-  </si>
-  <si>
-    <t>共享源代码</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Zlib%E6%8E%88%E6%9D%83</t>
-  </si>
-  <si>
-    <t>Zlib授权</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/WTFPL</t>
-  </si>
-  <si>
-    <t>WTFPL</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%8F%8A%E9%96%8B%E6%94%BE%E5%8E%9F%E5%A7%8B%E7%A2%BC%E8%BB%9F%E9%AB%94%E8%A8%B1%E5%8F%AF%E8%AD%89%E6%AF%94%E8%BC%83</t>
-  </si>
-  <si>
-    <t>自由及開放原始碼軟體許可證比較</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/FUD</t>
-  </si>
-  <si>
-    <t>FUD</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%93%81%E6%8A%B1%E3%80%81%E6%93%B4%E5%85%85%E5%8A%9F%E8%83%BD%E5%86%8D%E6%B6%88%E6%BB%85</t>
-  </si>
-  <si>
-    <t>擁抱、擴充功能再消滅</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Binary_blob</t>
-  </si>
-  <si>
-    <t>en-Binary blob</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E4%BD%8D%E7%89%88%E6%AC%8A%E7%AE%A1%E7%90%86</t>
-  </si>
-  <si>
-    <t>數位版權管理</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Free_and_open-source_graphics_device_driver</t>
-  </si>
-  <si>
-    <t>en-Free and open-source graphics device driver</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/License_proliferation</t>
-  </si>
-  <si>
-    <t>en-License proliferation</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Mozilla_Corporation_software_rebranded_by_the_Debian_project</t>
-  </si>
-  <si>
-    <t>en-Mozilla Corporation software rebranded by the Debian project</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%93%E6%9C%89%E8%BD%AF%E4%BB%B6</t>
-  </si>
-  <si>
-    <t>专有软件</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/SCO-Linux%E7%88%AD%E8%AD%B0</t>
-  </si>
-  <si>
-    <t>SCO-Linux爭議</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E4%BF%A1%E8%AE%A1%E7%AE%97</t>
-  </si>
-  <si>
-    <t>可信计算</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/GNU%E9%80%9A%E7%94%A8%E5%85%AC%E5%85%B1%E8%AE%B8%E5%8F%AF%E5%8D%8F%E8%AE%AE</t>
-  </si>
-  <si>
-    <t>GNU通用公共许可协议</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%BB%9F%E9%AB%94%E7%A4%BE%E7%BE%A4</t>
-  </si>
-  <si>
-    <t>自由軟體社群</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Linux%E7%99%BC%E8%A1%8C%E7%89%88</t>
-  </si>
-  <si>
-    <t>Linux發行版</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%8D%E5%88%BB_(%E8%BD%AF%E4%BB%B6%E5%B7%A5%E7%A8%8B)</t>
-  </si>
-  <si>
-    <t>复刻 (软件工程)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%BB%9F%E9%AB%94%E9%81%8B%E5%8B%95</t>
-  </si>
-  <si>
-    <t>自由軟體運動</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Microsoft_Open_Specification_Promise</t>
-  </si>
-  <si>
-    <t>en-Microsoft Open Specification Promise</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%93%8D%E4%BD%9C%E7%B3%BB%E7%BB%9F%E9%9D%A9%E5%91%BD</t>
-  </si>
-  <si>
-    <t>操作系统革命</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Comparison_of_open_source_and_closed_source</t>
-  </si>
-  <si>
-    <t>en-Comparison of open source and closed source</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
-  </si>
-  <si>
-    <t>權威控制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
-  </si>
-  <si>
-    <t>虚拟国际规范文档</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
-  </si>
-  <si>
-    <t>美国国会图书馆控制号</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
-  </si>
-  <si>
-    <t>整合规范文档</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -1638,7 +1623,7 @@
         <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1667,7 +1652,7 @@
         <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1696,7 +1681,7 @@
         <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1725,7 +1710,7 @@
         <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1754,7 +1739,7 @@
         <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1783,7 +1768,7 @@
         <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1812,7 +1797,7 @@
         <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1841,7 +1826,7 @@
         <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1870,7 +1855,7 @@
         <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1899,7 +1884,7 @@
         <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1928,7 +1913,7 @@
         <v>4</v>
       </c>
       <c r="I12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1951,13 +1936,13 @@
         <v>26</v>
       </c>
       <c r="G13" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H13" t="s">
         <v>4</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1986,7 +1971,7 @@
         <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -2015,7 +2000,7 @@
         <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -2044,7 +2029,7 @@
         <v>4</v>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -2073,7 +2058,7 @@
         <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -2102,7 +2087,7 @@
         <v>4</v>
       </c>
       <c r="I18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -2131,7 +2116,7 @@
         <v>4</v>
       </c>
       <c r="I19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -2160,7 +2145,7 @@
         <v>4</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -2189,7 +2174,7 @@
         <v>4</v>
       </c>
       <c r="I21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -2218,7 +2203,7 @@
         <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -2247,7 +2232,7 @@
         <v>4</v>
       </c>
       <c r="I23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2276,7 +2261,7 @@
         <v>4</v>
       </c>
       <c r="I24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2305,7 +2290,7 @@
         <v>4</v>
       </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2334,7 +2319,7 @@
         <v>4</v>
       </c>
       <c r="I26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2363,7 +2348,7 @@
         <v>4</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2392,7 +2377,7 @@
         <v>4</v>
       </c>
       <c r="I28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2421,7 +2406,7 @@
         <v>4</v>
       </c>
       <c r="I29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2450,7 +2435,7 @@
         <v>4</v>
       </c>
       <c r="I30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2479,7 +2464,7 @@
         <v>4</v>
       </c>
       <c r="I31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2508,7 +2493,7 @@
         <v>4</v>
       </c>
       <c r="I32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2537,7 +2522,7 @@
         <v>4</v>
       </c>
       <c r="I33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2566,7 +2551,7 @@
         <v>4</v>
       </c>
       <c r="I34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2595,7 +2580,7 @@
         <v>4</v>
       </c>
       <c r="I35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2624,7 +2609,7 @@
         <v>4</v>
       </c>
       <c r="I36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2653,7 +2638,7 @@
         <v>4</v>
       </c>
       <c r="I37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2682,7 +2667,7 @@
         <v>4</v>
       </c>
       <c r="I38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2711,7 +2696,7 @@
         <v>4</v>
       </c>
       <c r="I39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2740,7 +2725,7 @@
         <v>4</v>
       </c>
       <c r="I40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2769,7 +2754,7 @@
         <v>4</v>
       </c>
       <c r="I41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2798,7 +2783,7 @@
         <v>4</v>
       </c>
       <c r="I42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2827,7 +2812,7 @@
         <v>4</v>
       </c>
       <c r="I43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2856,7 +2841,7 @@
         <v>4</v>
       </c>
       <c r="I44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2885,7 +2870,7 @@
         <v>4</v>
       </c>
       <c r="I45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2914,7 +2899,7 @@
         <v>4</v>
       </c>
       <c r="I46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2943,7 +2928,7 @@
         <v>4</v>
       </c>
       <c r="I47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2972,7 +2957,7 @@
         <v>4</v>
       </c>
       <c r="I48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -3001,7 +2986,7 @@
         <v>4</v>
       </c>
       <c r="I49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -3030,7 +3015,7 @@
         <v>4</v>
       </c>
       <c r="I50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -3059,7 +3044,7 @@
         <v>4</v>
       </c>
       <c r="I51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -3088,7 +3073,7 @@
         <v>4</v>
       </c>
       <c r="I52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -3117,7 +3102,7 @@
         <v>4</v>
       </c>
       <c r="I53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -3146,7 +3131,7 @@
         <v>4</v>
       </c>
       <c r="I54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -3175,7 +3160,7 @@
         <v>4</v>
       </c>
       <c r="I55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -3204,7 +3189,7 @@
         <v>4</v>
       </c>
       <c r="I56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -3233,7 +3218,7 @@
         <v>4</v>
       </c>
       <c r="I57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -3262,7 +3247,7 @@
         <v>4</v>
       </c>
       <c r="I58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -3291,7 +3276,7 @@
         <v>4</v>
       </c>
       <c r="I59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -3320,7 +3305,7 @@
         <v>4</v>
       </c>
       <c r="I60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -3349,7 +3334,7 @@
         <v>4</v>
       </c>
       <c r="I61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -3378,7 +3363,7 @@
         <v>4</v>
       </c>
       <c r="I62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -3407,7 +3392,7 @@
         <v>4</v>
       </c>
       <c r="I63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -3436,7 +3421,7 @@
         <v>4</v>
       </c>
       <c r="I64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -3465,7 +3450,7 @@
         <v>4</v>
       </c>
       <c r="I65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -3494,7 +3479,7 @@
         <v>4</v>
       </c>
       <c r="I66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -3523,7 +3508,7 @@
         <v>4</v>
       </c>
       <c r="I67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -3552,7 +3537,7 @@
         <v>4</v>
       </c>
       <c r="I68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -3581,7 +3566,7 @@
         <v>4</v>
       </c>
       <c r="I69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3610,7 +3595,7 @@
         <v>4</v>
       </c>
       <c r="I70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3639,7 +3624,7 @@
         <v>4</v>
       </c>
       <c r="I71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3668,7 +3653,7 @@
         <v>4</v>
       </c>
       <c r="I72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -3688,7 +3673,7 @@
         <v>135</v>
       </c>
       <c r="F73" t="s">
-        <v>136</v>
+        <v>90</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3697,7 +3682,7 @@
         <v>4</v>
       </c>
       <c r="I73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3714,11 +3699,11 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>136</v>
+      </c>
+      <c r="F74" t="s">
         <v>137</v>
       </c>
-      <c r="F74" t="s">
-        <v>138</v>
-      </c>
       <c r="G74" t="n">
         <v>1</v>
       </c>
@@ -3726,7 +3711,7 @@
         <v>4</v>
       </c>
       <c r="I74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -3743,10 +3728,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>138</v>
+      </c>
+      <c r="F75" t="s">
         <v>139</v>
-      </c>
-      <c r="F75" t="s">
-        <v>140</v>
       </c>
       <c r="G75" t="n">
         <v>2</v>
@@ -3755,7 +3740,7 @@
         <v>4</v>
       </c>
       <c r="I75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3772,11 +3757,11 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>140</v>
+      </c>
+      <c r="F76" t="s">
         <v>141</v>
       </c>
-      <c r="F76" t="s">
-        <v>142</v>
-      </c>
       <c r="G76" t="n">
         <v>1</v>
       </c>
@@ -3784,7 +3769,7 @@
         <v>4</v>
       </c>
       <c r="I76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3801,11 +3786,11 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>142</v>
+      </c>
+      <c r="F77" t="s">
         <v>143</v>
       </c>
-      <c r="F77" t="s">
-        <v>144</v>
-      </c>
       <c r="G77" t="n">
         <v>1</v>
       </c>
@@ -3813,7 +3798,7 @@
         <v>4</v>
       </c>
       <c r="I77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3830,11 +3815,11 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>144</v>
+      </c>
+      <c r="F78" t="s">
         <v>145</v>
       </c>
-      <c r="F78" t="s">
-        <v>146</v>
-      </c>
       <c r="G78" t="n">
         <v>1</v>
       </c>
@@ -3842,7 +3827,7 @@
         <v>4</v>
       </c>
       <c r="I78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3859,11 +3844,11 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>146</v>
+      </c>
+      <c r="F79" t="s">
         <v>147</v>
       </c>
-      <c r="F79" t="s">
-        <v>148</v>
-      </c>
       <c r="G79" t="n">
         <v>1</v>
       </c>
@@ -3871,7 +3856,7 @@
         <v>4</v>
       </c>
       <c r="I79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3888,11 +3873,11 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>148</v>
+      </c>
+      <c r="F80" t="s">
         <v>149</v>
       </c>
-      <c r="F80" t="s">
-        <v>150</v>
-      </c>
       <c r="G80" t="n">
         <v>1</v>
       </c>
@@ -3900,7 +3885,7 @@
         <v>4</v>
       </c>
       <c r="I80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -3917,11 +3902,11 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>150</v>
+      </c>
+      <c r="F81" t="s">
         <v>151</v>
       </c>
-      <c r="F81" t="s">
-        <v>152</v>
-      </c>
       <c r="G81" t="n">
         <v>1</v>
       </c>
@@ -3929,7 +3914,7 @@
         <v>4</v>
       </c>
       <c r="I81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3946,11 +3931,11 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>152</v>
+      </c>
+      <c r="F82" t="s">
         <v>153</v>
       </c>
-      <c r="F82" t="s">
-        <v>154</v>
-      </c>
       <c r="G82" t="n">
         <v>1</v>
       </c>
@@ -3958,7 +3943,7 @@
         <v>4</v>
       </c>
       <c r="I82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3975,11 +3960,11 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>154</v>
+      </c>
+      <c r="F83" t="s">
         <v>155</v>
       </c>
-      <c r="F83" t="s">
-        <v>156</v>
-      </c>
       <c r="G83" t="n">
         <v>1</v>
       </c>
@@ -3987,7 +3972,7 @@
         <v>4</v>
       </c>
       <c r="I83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -4016,7 +4001,7 @@
         <v>4</v>
       </c>
       <c r="I84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -4045,7 +4030,7 @@
         <v>4</v>
       </c>
       <c r="I85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -4062,11 +4047,11 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>156</v>
+      </c>
+      <c r="F86" t="s">
         <v>157</v>
       </c>
-      <c r="F86" t="s">
-        <v>158</v>
-      </c>
       <c r="G86" t="n">
         <v>1</v>
       </c>
@@ -4074,7 +4059,7 @@
         <v>4</v>
       </c>
       <c r="I86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -4091,11 +4076,11 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>158</v>
+      </c>
+      <c r="F87" t="s">
         <v>159</v>
       </c>
-      <c r="F87" t="s">
-        <v>160</v>
-      </c>
       <c r="G87" t="n">
         <v>1</v>
       </c>
@@ -4103,7 +4088,7 @@
         <v>4</v>
       </c>
       <c r="I87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -4132,7 +4117,7 @@
         <v>4</v>
       </c>
       <c r="I88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -4149,10 +4134,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F89" t="s">
-        <v>162</v>
+        <v>38</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -4161,7 +4146,7 @@
         <v>4</v>
       </c>
       <c r="I89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -4178,10 +4163,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F90" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
@@ -4190,7 +4175,7 @@
         <v>4</v>
       </c>
       <c r="I90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -4207,19 +4192,19 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F91" t="s">
-        <v>166</v>
+        <v>30</v>
       </c>
       <c r="G91" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H91" t="s">
         <v>4</v>
       </c>
       <c r="I91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -4236,10 +4221,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F92" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4248,7 +4233,7 @@
         <v>4</v>
       </c>
       <c r="I92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -4265,19 +4250,19 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F93" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H93" t="s">
         <v>4</v>
       </c>
       <c r="I93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -4294,19 +4279,19 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F94" t="s">
-        <v>172</v>
+        <v>34</v>
       </c>
       <c r="G94" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H94" t="s">
         <v>4</v>
       </c>
       <c r="I94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -4323,10 +4308,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F95" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4335,7 +4320,7 @@
         <v>4</v>
       </c>
       <c r="I95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -4352,10 +4337,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>175</v>
+        <v>39</v>
       </c>
       <c r="F96" t="s">
-        <v>176</v>
+        <v>40</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4364,7 +4349,7 @@
         <v>4</v>
       </c>
       <c r="I96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -4381,10 +4366,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>39</v>
+        <v>171</v>
       </c>
       <c r="F97" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4393,7 +4378,7 @@
         <v>4</v>
       </c>
       <c r="I97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -4410,19 +4395,19 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F98" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H98" t="s">
         <v>4</v>
       </c>
       <c r="I98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -4439,19 +4424,19 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F99" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H99" t="s">
         <v>4</v>
       </c>
       <c r="I99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -4468,19 +4453,19 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F100" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H100" t="s">
         <v>4</v>
       </c>
       <c r="I100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -4497,19 +4482,19 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F101" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G101" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H101" t="s">
         <v>4</v>
       </c>
       <c r="I101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -4526,10 +4511,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F102" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4538,7 +4523,7 @@
         <v>4</v>
       </c>
       <c r="I102" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -4555,10 +4540,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F103" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4567,7 +4552,7 @@
         <v>4</v>
       </c>
       <c r="I103" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -4584,10 +4569,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F104" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4596,7 +4581,7 @@
         <v>4</v>
       </c>
       <c r="I104" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -4613,19 +4598,19 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F105" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H105" t="s">
         <v>4</v>
       </c>
       <c r="I105" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -4642,10 +4627,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F106" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -4654,7 +4639,7 @@
         <v>4</v>
       </c>
       <c r="I106" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -4671,10 +4656,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F107" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G107" t="n">
         <v>2</v>
@@ -4683,7 +4668,7 @@
         <v>4</v>
       </c>
       <c r="I107" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -4700,19 +4685,19 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F108" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H108" t="s">
         <v>4</v>
       </c>
       <c r="I108" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -4729,19 +4714,19 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F109" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H109" t="s">
         <v>4</v>
       </c>
       <c r="I109" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -4758,10 +4743,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F110" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G110" t="n">
         <v>2</v>
@@ -4770,7 +4755,7 @@
         <v>4</v>
       </c>
       <c r="I110" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -4787,19 +4772,19 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F111" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H111" t="s">
         <v>4</v>
       </c>
       <c r="I111" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -4816,19 +4801,19 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F112" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H112" t="s">
         <v>4</v>
       </c>
       <c r="I112" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -4845,10 +4830,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F113" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G113" t="n">
         <v>2</v>
@@ -4857,7 +4842,7 @@
         <v>4</v>
       </c>
       <c r="I113" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -4874,10 +4859,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>209</v>
+        <v>169</v>
       </c>
       <c r="F114" t="s">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="G114" t="n">
         <v>2</v>
@@ -4886,7 +4871,7 @@
         <v>4</v>
       </c>
       <c r="I114" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -4903,19 +4888,19 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>165</v>
+        <v>204</v>
       </c>
       <c r="F115" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="G115" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H115" t="s">
         <v>4</v>
       </c>
       <c r="I115" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -4932,19 +4917,19 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="F116" t="s">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="G116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H116" t="s">
         <v>4</v>
       </c>
       <c r="I116" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -4961,19 +4946,19 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F117" t="s">
-        <v>212</v>
+        <v>94</v>
       </c>
       <c r="G117" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H117" t="s">
         <v>4</v>
       </c>
       <c r="I117" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -4990,10 +4975,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>213</v>
+        <v>23</v>
       </c>
       <c r="F118" t="s">
-        <v>214</v>
+        <v>24</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5002,7 +4987,7 @@
         <v>4</v>
       </c>
       <c r="I118" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -5019,19 +5004,19 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F119" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G119" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H119" t="s">
         <v>4</v>
       </c>
       <c r="I119" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -5048,19 +5033,19 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>23</v>
+        <v>211</v>
       </c>
       <c r="F120" t="s">
-        <v>24</v>
+        <v>212</v>
       </c>
       <c r="G120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H120" t="s">
         <v>4</v>
       </c>
       <c r="I120" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -5077,10 +5062,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F121" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5089,7 +5074,7 @@
         <v>4</v>
       </c>
       <c r="I121" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -5106,19 +5091,19 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F122" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G122" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H122" t="s">
         <v>4</v>
       </c>
       <c r="I122" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -5135,10 +5120,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F123" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5147,7 +5132,7 @@
         <v>4</v>
       </c>
       <c r="I123" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -5164,19 +5149,19 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F124" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="G124" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H124" t="s">
         <v>4</v>
       </c>
       <c r="I124" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -5193,10 +5178,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F125" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5205,7 +5190,7 @@
         <v>4</v>
       </c>
       <c r="I125" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -5222,19 +5207,19 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F126" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G126" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H126" t="s">
         <v>4</v>
       </c>
       <c r="I126" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -5251,19 +5236,19 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F127" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H127" t="s">
         <v>4</v>
       </c>
       <c r="I127" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -5280,10 +5265,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F128" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5292,7 +5277,7 @@
         <v>4</v>
       </c>
       <c r="I128" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -5309,19 +5294,19 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F129" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H129" t="s">
         <v>4</v>
       </c>
       <c r="I129" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -5338,19 +5323,19 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F130" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G130" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H130" t="s">
         <v>4</v>
       </c>
       <c r="I130" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -5367,19 +5352,19 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F131" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H131" t="s">
         <v>4</v>
       </c>
       <c r="I131" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -5396,19 +5381,19 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F132" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G132" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H132" t="s">
         <v>4</v>
       </c>
       <c r="I132" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -5425,19 +5410,19 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F133" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G133" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H133" t="s">
         <v>4</v>
       </c>
       <c r="I133" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -5454,10 +5439,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F134" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5466,7 +5451,7 @@
         <v>4</v>
       </c>
       <c r="I134" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -5483,19 +5468,19 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F135" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G135" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H135" t="s">
         <v>4</v>
       </c>
       <c r="I135" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -5512,10 +5497,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F136" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5524,7 +5509,7 @@
         <v>4</v>
       </c>
       <c r="I136" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -5541,19 +5526,19 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F137" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H137" t="s">
         <v>4</v>
       </c>
       <c r="I137" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -5570,10 +5555,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F138" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5582,7 +5567,7 @@
         <v>4</v>
       </c>
       <c r="I138" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -5599,19 +5584,19 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F139" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H139" t="s">
         <v>4</v>
       </c>
       <c r="I139" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -5628,10 +5613,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F140" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5640,7 +5625,7 @@
         <v>4</v>
       </c>
       <c r="I140" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -5657,19 +5642,19 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F141" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H141" t="s">
         <v>4</v>
       </c>
       <c r="I141" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -5686,10 +5671,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F142" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5698,7 +5683,7 @@
         <v>4</v>
       </c>
       <c r="I142" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -5715,19 +5700,19 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F143" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H143" t="s">
         <v>4</v>
       </c>
       <c r="I143" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -5744,10 +5729,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F144" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5756,7 +5741,7 @@
         <v>4</v>
       </c>
       <c r="I144" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -5773,10 +5758,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F145" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5785,7 +5770,7 @@
         <v>4</v>
       </c>
       <c r="I145" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -5802,19 +5787,19 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F146" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G146" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H146" t="s">
         <v>4</v>
       </c>
       <c r="I146" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -5831,10 +5816,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F147" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5843,7 +5828,7 @@
         <v>4</v>
       </c>
       <c r="I147" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -5860,19 +5845,19 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F148" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G148" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H148" t="s">
         <v>4</v>
       </c>
       <c r="I148" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -5889,10 +5874,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F149" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5901,7 +5886,7 @@
         <v>4</v>
       </c>
       <c r="I149" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -5918,10 +5903,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F150" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5930,7 +5915,7 @@
         <v>4</v>
       </c>
       <c r="I150" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -5947,10 +5932,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F151" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5959,7 +5944,7 @@
         <v>4</v>
       </c>
       <c r="I151" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -5976,10 +5961,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F152" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5988,7 +5973,7 @@
         <v>4</v>
       </c>
       <c r="I152" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -6005,10 +5990,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F153" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6017,7 +6002,7 @@
         <v>4</v>
       </c>
       <c r="I153" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -6034,19 +6019,19 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F154" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G154" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H154" t="s">
         <v>4</v>
       </c>
       <c r="I154" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -6063,10 +6048,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F155" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6075,7 +6060,7 @@
         <v>4</v>
       </c>
       <c r="I155" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -6092,19 +6077,19 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F156" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G156" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H156" t="s">
         <v>4</v>
       </c>
       <c r="I156" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -6121,10 +6106,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F157" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6133,7 +6118,7 @@
         <v>4</v>
       </c>
       <c r="I157" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -6150,10 +6135,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F158" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6162,7 +6147,7 @@
         <v>4</v>
       </c>
       <c r="I158" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -6179,10 +6164,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F159" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6191,7 +6176,7 @@
         <v>4</v>
       </c>
       <c r="I159" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -6208,10 +6193,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F160" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6220,7 +6205,7 @@
         <v>4</v>
       </c>
       <c r="I160" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -6237,10 +6222,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F161" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6249,7 +6234,7 @@
         <v>4</v>
       </c>
       <c r="I161" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -6266,10 +6251,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F162" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6278,7 +6263,7 @@
         <v>4</v>
       </c>
       <c r="I162" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -6295,10 +6280,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F163" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6307,7 +6292,7 @@
         <v>4</v>
       </c>
       <c r="I163" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -6324,10 +6309,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>301</v>
+        <v>229</v>
       </c>
       <c r="F164" t="s">
-        <v>302</v>
+        <v>230</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6336,7 +6321,7 @@
         <v>4</v>
       </c>
       <c r="I164" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -6353,10 +6338,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F165" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6365,7 +6350,7 @@
         <v>4</v>
       </c>
       <c r="I165" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -6382,10 +6367,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>237</v>
+        <v>299</v>
       </c>
       <c r="F166" t="s">
-        <v>238</v>
+        <v>300</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6394,7 +6379,7 @@
         <v>4</v>
       </c>
       <c r="I166" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -6411,10 +6396,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F167" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6423,7 +6408,7 @@
         <v>4</v>
       </c>
       <c r="I167" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -6440,10 +6425,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F168" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6452,7 +6437,7 @@
         <v>4</v>
       </c>
       <c r="I168" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -6469,10 +6454,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F169" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6481,7 +6466,7 @@
         <v>4</v>
       </c>
       <c r="I169" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -6498,10 +6483,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F170" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6510,7 +6495,7 @@
         <v>4</v>
       </c>
       <c r="I170" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -6527,10 +6512,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F171" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6539,7 +6524,7 @@
         <v>4</v>
       </c>
       <c r="I171" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -6556,10 +6541,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F172" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6568,7 +6553,7 @@
         <v>4</v>
       </c>
       <c r="I172" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -6585,10 +6570,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F173" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6597,7 +6582,7 @@
         <v>4</v>
       </c>
       <c r="I173" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -6614,10 +6599,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F174" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6626,7 +6611,7 @@
         <v>4</v>
       </c>
       <c r="I174" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -6643,10 +6628,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F175" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6655,7 +6640,7 @@
         <v>4</v>
       </c>
       <c r="I175" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -6672,10 +6657,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F176" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6684,7 +6669,7 @@
         <v>4</v>
       </c>
       <c r="I176" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -6701,10 +6686,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F177" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6713,7 +6698,7 @@
         <v>4</v>
       </c>
       <c r="I177" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -6730,10 +6715,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F178" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6742,7 +6727,7 @@
         <v>4</v>
       </c>
       <c r="I178" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -6759,19 +6744,19 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F179" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G179" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H179" t="s">
         <v>4</v>
       </c>
       <c r="I179" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -6788,19 +6773,19 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F180" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H180" t="s">
         <v>4</v>
       </c>
       <c r="I180" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -6817,19 +6802,19 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F181" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G181" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H181" t="s">
         <v>4</v>
       </c>
       <c r="I181" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -6846,19 +6831,19 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F182" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H182" t="s">
         <v>4</v>
       </c>
       <c r="I182" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -6875,10 +6860,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F183" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6887,7 +6872,7 @@
         <v>4</v>
       </c>
       <c r="I183" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -6904,10 +6889,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F184" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -6916,7 +6901,7 @@
         <v>4</v>
       </c>
       <c r="I184" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -6933,10 +6918,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F185" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -6945,7 +6930,7 @@
         <v>4</v>
       </c>
       <c r="I185" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -6962,10 +6947,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F186" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -6974,7 +6959,7 @@
         <v>4</v>
       </c>
       <c r="I186" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -6991,10 +6976,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F187" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7003,7 +6988,7 @@
         <v>4</v>
       </c>
       <c r="I187" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -7020,10 +7005,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F188" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7032,7 +7017,7 @@
         <v>4</v>
       </c>
       <c r="I188" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -7049,10 +7034,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F189" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7061,7 +7046,7 @@
         <v>4</v>
       </c>
       <c r="I189" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -7078,10 +7063,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F190" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7090,7 +7075,7 @@
         <v>4</v>
       </c>
       <c r="I190" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -7107,10 +7092,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F191" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7119,7 +7104,7 @@
         <v>4</v>
       </c>
       <c r="I191" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -7136,10 +7121,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F192" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7148,7 +7133,7 @@
         <v>4</v>
       </c>
       <c r="I192" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -7165,10 +7150,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F193" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7177,7 +7162,7 @@
         <v>4</v>
       </c>
       <c r="I193" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -7194,10 +7179,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F194" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7206,7 +7191,7 @@
         <v>4</v>
       </c>
       <c r="I194" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -7223,10 +7208,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F195" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7235,7 +7220,7 @@
         <v>4</v>
       </c>
       <c r="I195" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -7252,10 +7237,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F196" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7264,7 +7249,7 @@
         <v>4</v>
       </c>
       <c r="I196" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -7281,10 +7266,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F197" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7293,7 +7278,7 @@
         <v>4</v>
       </c>
       <c r="I197" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -7310,10 +7295,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F198" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7322,7 +7307,7 @@
         <v>4</v>
       </c>
       <c r="I198" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -7339,10 +7324,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F199" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7351,7 +7336,7 @@
         <v>4</v>
       </c>
       <c r="I199" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -7368,10 +7353,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F200" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7380,7 +7365,7 @@
         <v>4</v>
       </c>
       <c r="I200" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -7397,10 +7382,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F201" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7409,7 +7394,7 @@
         <v>4</v>
       </c>
       <c r="I201" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -7426,10 +7411,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F202" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7438,7 +7423,7 @@
         <v>4</v>
       </c>
       <c r="I202" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -7455,10 +7440,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F203" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7467,7 +7452,7 @@
         <v>4</v>
       </c>
       <c r="I203" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="204" spans="1:9">
@@ -7484,10 +7469,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F204" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7496,7 +7481,7 @@
         <v>4</v>
       </c>
       <c r="I204" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -7513,10 +7498,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F205" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7525,7 +7510,7 @@
         <v>4</v>
       </c>
       <c r="I205" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -7542,10 +7527,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F206" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7554,7 +7539,7 @@
         <v>4</v>
       </c>
       <c r="I206" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -7571,10 +7556,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F207" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7583,7 +7568,7 @@
         <v>4</v>
       </c>
       <c r="I207" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="208" spans="1:9">
@@ -7600,10 +7585,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F208" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7612,7 +7597,7 @@
         <v>4</v>
       </c>
       <c r="I208" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="209" spans="1:9">
@@ -7629,10 +7614,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F209" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7641,7 +7626,7 @@
         <v>4</v>
       </c>
       <c r="I209" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="210" spans="1:9">
@@ -7658,10 +7643,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F210" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7670,7 +7655,7 @@
         <v>4</v>
       </c>
       <c r="I210" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="211" spans="1:9">
@@ -7687,19 +7672,19 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F211" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G211" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H211" t="s">
         <v>4</v>
       </c>
       <c r="I211" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="212" spans="1:9">
@@ -7716,10 +7701,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F212" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -7728,7 +7713,7 @@
         <v>4</v>
       </c>
       <c r="I212" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="213" spans="1:9">
@@ -7745,19 +7730,19 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F213" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G213" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H213" t="s">
         <v>4</v>
       </c>
       <c r="I213" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="214" spans="1:9">
@@ -7774,10 +7759,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F214" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -7786,7 +7771,7 @@
         <v>4</v>
       </c>
       <c r="I214" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="215" spans="1:9">
@@ -7803,19 +7788,19 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F215" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G215" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H215" t="s">
         <v>4</v>
       </c>
       <c r="I215" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="216" spans="1:9">
@@ -7832,10 +7817,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="F216" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -7844,7 +7829,7 @@
         <v>4</v>
       </c>
       <c r="I216" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
